--- a/Запись/Запись 2021/First_year_2021.xlsx
+++ b/Запись/Запись 2021/First_year_2021.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Text\Article\Lab-processings\Запись\Запись 2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$62</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -145,9 +153,6 @@
     <t>(911)9698824</t>
   </si>
   <si>
-    <t>Группа 3. Педагог Вадим Михайлович Хайтов. Основной день занятий Суббота. Дополнительный день (практическое занятие один раз в месяц) - Среда.</t>
-  </si>
-  <si>
     <t>Андреевой</t>
   </si>
   <si>
@@ -253,9 +258,6 @@
     <t>(921)8914946</t>
   </si>
   <si>
-    <t>Группа 1. Педагог Алексей Валерьевич Полоскин. Основной день занятий Понедельник. Дополнительный день (практическое занятие один раз в месяц) - Четверг.</t>
-  </si>
-  <si>
     <t>Алексеевича</t>
   </si>
   <si>
@@ -751,9 +753,6 @@
     <t>(965)0265032</t>
   </si>
   <si>
-    <t>Группа 2. Педагог Дмитрий Алексеевич Аристов. Основной день занятий Пятница. Дополнительный день (практическое занятие один раз в месяц) - Вторник.</t>
-  </si>
-  <si>
     <t>Робертовны</t>
   </si>
   <si>
@@ -2528,23 +2527,28 @@
   </si>
   <si>
     <t>Владимировны</t>
+  </si>
+  <si>
+    <t>АВ</t>
+  </si>
+  <si>
+    <t>ДА</t>
+  </si>
+  <si>
+    <t>ВМ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-419]d\ mmmm\ yyyy\ &quot;r.&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="166" formatCode="[$-419]d\ mmmm\ yyyy\ &quot;r.&quot;;@"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2563,7 +2567,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2573,338 +2576,16 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2927,251 +2608,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3180,7 +2622,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3189,20 +2631,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -3211,66 +2653,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3528,32 +2927,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="$A2:$XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.7777777777778"/>
-    <col min="7" max="7" width="12.8888888888889"/>
-    <col min="13" max="13" width="18.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="10.8888888888889"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375"/>
+    <col min="7" max="7" width="12.85546875"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="11.7777777777778"/>
+    <col min="18" max="18" width="11.7109375"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="23" max="23" width="12.8888888888889"/>
+    <col min="23" max="23" width="12.85546875"/>
     <col min="26" max="26" width="18" customWidth="1"/>
-    <col min="27" max="27" width="15.2222222222222" customWidth="1"/>
-    <col min="28" max="28" width="16.8888888888889" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -3645,9 +3044,9 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" ht="132.75" spans="1:31">
+    <row r="2" spans="1:31" ht="127.5">
       <c r="A2" s="2">
-        <v>44438.4681597222</v>
+        <v>44438.468159722201</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -3717,60 +3116,60 @@
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" ht="145.95" spans="1:31">
+    <row r="3" spans="1:31" ht="140.25">
       <c r="A3" s="2">
-        <v>44445.4509375</v>
+        <v>44445.450937499998</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="4">
         <v>4005298384</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4">
         <v>9219736733</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>38</v>
@@ -3782,19 +3181,19 @@
         <v>39702</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="V3" s="4">
         <v>7</v>
@@ -3803,66 +3202,66 @@
         <v>9118499759</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" ht="66.75" spans="1:31">
+    <row r="4" spans="1:31" ht="63.75">
       <c r="A4" s="2">
-        <v>44441.8192592593</v>
+        <v>44441.819259259297</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E4" s="4">
         <v>4020673285</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4">
         <v>9218914946</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="O4" s="4">
         <v>13</v>
@@ -3871,16 +3270,16 @@
         <v>39333</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="U4" s="4">
         <v>636</v>
@@ -3889,69 +3288,69 @@
         <v>7</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>79</v>
+        <v>835</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" ht="93.15" spans="1:31">
+    <row r="5" spans="1:31" ht="102">
       <c r="A5" s="5">
-        <v>44447.0825347222</v>
+        <v>44447.082534722198</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="3">
         <v>301591998</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O5" s="4">
         <v>12</v>
@@ -3960,87 +3359,87 @@
         <v>39976</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="V5" s="4">
         <v>6</v>
       </c>
       <c r="W5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" ht="145.95" spans="1:31">
+    <row r="6" spans="1:31" ht="140.25">
       <c r="A6" s="2">
-        <v>44435.8517824074</v>
+        <v>44435.851782407401</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E6" s="4">
         <v>4020734656</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O6" s="4">
         <v>12</v>
@@ -4049,16 +3448,16 @@
         <v>39857</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="U6" s="4">
         <v>503</v>
@@ -4067,66 +3466,66 @@
         <v>6</v>
       </c>
       <c r="W6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="X6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" ht="66.75" spans="1:31">
+    <row r="7" spans="1:31" ht="63.75">
       <c r="A7" s="2">
-        <v>44439.5733912037</v>
+        <v>44439.573391203703</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4">
         <v>4020643844</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>38</v>
@@ -4138,87 +3537,87 @@
         <v>38896</v>
       </c>
       <c r="Q7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="V7" s="4">
         <v>9</v>
       </c>
       <c r="W7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" ht="79.95" spans="1:31">
+    <row r="8" spans="1:31" ht="89.25">
       <c r="A8" s="2">
-        <v>44436.5807291667</v>
+        <v>44436.580729166701</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="E8" s="4">
         <v>4019344009</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8" s="4">
         <v>10</v>
@@ -4227,50 +3626,50 @@
         <v>40499</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="V8" s="4">
         <v>5</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" ht="251.55" spans="1:31">
+    <row r="9" spans="1:31" ht="229.5">
       <c r="A9" s="2">
-        <v>44435.8134143519</v>
+        <v>44435.813414351898</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>30</v>
@@ -4279,31 +3678,31 @@
         <v>4007304613</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" s="4">
         <v>12</v>
@@ -4312,16 +3711,16 @@
         <v>39849</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U9" s="4">
         <v>56</v>
@@ -4330,66 +3729,66 @@
         <v>7</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" ht="145.95" spans="1:31">
+    <row r="10" spans="1:31" ht="140.25">
       <c r="A10" s="2">
-        <v>44439.4690856481</v>
+        <v>44439.469085648103</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="E10" s="4">
         <v>4019604046</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="M10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>38</v>
@@ -4401,16 +3800,16 @@
         <v>39552</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U10" s="4">
         <v>185</v>
@@ -4419,69 +3818,69 @@
         <v>7</v>
       </c>
       <c r="W10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z10" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Y10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" ht="225.15" spans="1:31">
+    <row r="11" spans="1:31" ht="204">
       <c r="A11" s="2">
-        <v>44436.0135763889</v>
+        <v>44436.013576388897</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E11" s="4">
         <v>4016713663</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="J11" s="4">
         <v>827864</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O11" s="4">
         <v>13</v>
@@ -4490,16 +3889,16 @@
         <v>39462</v>
       </c>
       <c r="Q11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="T11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U11" s="4">
         <v>58</v>
@@ -4508,67 +3907,67 @@
         <v>7</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" ht="106.35" spans="1:31">
+    <row r="12" spans="1:31" ht="102">
       <c r="A12" s="2">
         <v>44445.5883680556</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="E12" s="4">
         <v>4019414136</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="K12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="M12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="O12" s="4">
         <v>12</v>
@@ -4577,16 +3976,16 @@
         <v>39942</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U12" s="4">
         <v>598</v>
@@ -4595,66 +3994,66 @@
         <v>6</v>
       </c>
       <c r="W12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA12" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="AB12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" ht="132.75" spans="1:31">
+    <row r="13" spans="1:31" ht="127.5">
       <c r="A13" s="2">
-        <v>44440.8974074074</v>
+        <v>44440.897407407399</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="E13" s="4">
         <v>4010030069</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="K13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>38</v>
@@ -4666,84 +4065,84 @@
         <v>39644</v>
       </c>
       <c r="Q13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="V13" s="4">
         <v>7</v>
       </c>
       <c r="W13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z13" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="Y13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" ht="185.55" spans="1:31">
+    <row r="14" spans="1:31" ht="178.5">
       <c r="A14" s="2">
-        <v>44439.8914467593</v>
+        <v>44439.891446759299</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E14" s="4">
         <v>2203822524</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G14" s="3">
         <v>79219515506</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>38</v>
@@ -4755,16 +4154,16 @@
         <v>39796</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U14" s="4">
         <v>104</v>
@@ -4773,69 +4172,69 @@
         <v>6</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>245</v>
+        <v>836</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" ht="251.55" spans="1:31">
+    <row r="15" spans="1:31" ht="229.5">
       <c r="A15" s="2">
         <v>44436.3882407407</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E15" s="4">
         <v>4010016021</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="K15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="N15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O15" s="4">
         <v>11</v>
@@ -4844,16 +4243,16 @@
         <v>40318</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U15" s="4">
         <v>77</v>
@@ -4862,66 +4261,66 @@
         <v>5</v>
       </c>
       <c r="W15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB15" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" ht="66.75" spans="1:31">
+    <row r="16" spans="1:31" ht="63.75">
       <c r="A16" s="2">
-        <v>44435.8158912037</v>
+        <v>44435.815891203703</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E16" s="4">
         <v>4019318661</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G16" s="3">
         <v>79219007641</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>38</v>
@@ -4936,13 +4335,13 @@
         <v>39</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U16" s="4">
         <v>642</v>
@@ -4951,66 +4350,66 @@
         <v>5</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>79</v>
+        <v>835</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" ht="159.15" spans="1:31">
+    <row r="17" spans="1:31" ht="153">
       <c r="A17" s="2">
         <v>44436.3617592593</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E17" s="4">
         <v>4020844038</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="J17" s="4">
         <v>508940</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>38</v>
@@ -5022,87 +4421,87 @@
         <v>40114</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V17" s="4">
         <v>6</v>
       </c>
       <c r="W17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA17" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" ht="132.75" spans="1:31">
+    <row r="18" spans="1:31" ht="114.75">
       <c r="A18" s="2">
-        <v>44441.6618518519</v>
+        <v>44441.661851851903</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E18" s="4">
         <v>4019482095</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="M18" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O18" s="4">
         <v>11</v>
@@ -5111,16 +4510,16 @@
         <v>40133</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U18" s="4">
         <v>578</v>
@@ -5129,66 +4528,66 @@
         <v>6</v>
       </c>
       <c r="W18" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB18" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y18" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" ht="159.15" spans="1:31">
+    <row r="19" spans="1:31" ht="165.75">
       <c r="A19" s="2">
-        <v>44435.8087962963</v>
+        <v>44435.808796296304</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E19" s="4">
         <v>4007435551</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G19" s="3">
         <v>79117234124</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>38</v>
@@ -5200,84 +4599,84 @@
         <v>39874</v>
       </c>
       <c r="Q19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="U19" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="V19" s="4">
         <v>6</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" ht="251.55" spans="1:31">
+    <row r="20" spans="1:31" ht="229.5">
       <c r="A20" s="2">
-        <v>44435.8158912037</v>
+        <v>44435.815891203703</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20" s="4">
         <v>4007435551</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G20" s="3">
         <v>79117234124</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>38</v>
@@ -5289,87 +4688,87 @@
         <v>39874</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="V20" s="4">
         <v>6</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" ht="66.75" spans="1:31">
+    <row r="21" spans="1:31" ht="63.75">
       <c r="A21" s="2">
-        <v>44438.5187731481</v>
+        <v>44438.518773148098</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E21" s="4">
         <v>3311115151</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G21" s="4">
         <v>9219829755</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="N21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O21" s="4">
         <v>12</v>
@@ -5378,16 +4777,16 @@
         <v>39702</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U21" s="4">
         <v>47</v>
@@ -5396,66 +4795,66 @@
         <v>6</v>
       </c>
       <c r="W21" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y21" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB21" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" ht="119.55" spans="1:31">
+    <row r="22" spans="1:31" ht="114.75">
       <c r="A22" s="2">
-        <v>44441.9151967593</v>
+        <v>44441.915196759299</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" s="4">
         <v>5208636641</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="K22" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="M22" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>38</v>
@@ -5467,16 +4866,16 @@
         <v>39187</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R22" s="4">
         <v>4021879941</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U22" s="4">
         <v>555</v>
@@ -5485,67 +4884,67 @@
         <v>8</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="14" t="s">
-        <v>245</v>
+        <v>836</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" ht="106.35" spans="1:31">
+    <row r="23" spans="1:31" ht="114.75">
       <c r="A23" s="2">
-        <v>44443.4840277778</v>
+        <v>44443.484027777798</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="4">
         <v>5303046733</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="M23" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="4">
         <v>13</v>
@@ -5554,16 +4953,16 @@
         <v>39625</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U23" s="4">
         <v>86</v>
@@ -5572,69 +4971,69 @@
         <v>7</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" ht="198.75" spans="1:31">
+    <row r="24" spans="1:31" ht="178.5">
       <c r="A24" s="2">
-        <v>44435.830787037</v>
+        <v>44435.830787036997</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E24" s="4">
         <v>4108052023</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="M24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="O24" s="4">
         <v>11</v>
@@ -5643,82 +5042,82 @@
         <v>40363</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="V24" s="4">
         <v>5</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" ht="93.15" spans="1:31">
+    <row r="25" spans="1:31" ht="102">
       <c r="A25" s="5">
-        <v>44446.4801041667</v>
+        <v>44446.480104166701</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E25" s="4">
         <v>3304054078</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>38</v>
@@ -5730,84 +5129,84 @@
         <v>39972</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="V25" s="4">
         <v>6</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>79</v>
+        <v>835</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" ht="119.55" spans="1:31">
+    <row r="26" spans="1:31" ht="114.75">
       <c r="A26" s="2">
-        <v>44444.9629282407</v>
+        <v>44444.962928240697</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E26" s="4">
         <v>4018102694</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G26" s="3">
         <v>79111047373</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="M26" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>38</v>
@@ -5819,16 +5218,16 @@
         <v>39269</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U26" s="4">
         <v>27</v>
@@ -5837,39 +5236,39 @@
         <v>8</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Y26" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" ht="40.35" spans="1:31">
+    <row r="27" spans="1:31" ht="38.25">
       <c r="A27" s="2">
-        <v>44444.9657638889</v>
+        <v>44444.965763888897</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E27" s="4">
         <v>4018102684</v>
@@ -5879,22 +5278,22 @@
         <v>79111047373</v>
       </c>
       <c r="H27" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="M27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>38</v>
@@ -5907,13 +5306,13 @@
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U27" s="4">
         <v>27</v>
@@ -5922,62 +5321,62 @@
         <v>8</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Y27" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" ht="40.35" spans="1:31">
+    <row r="28" spans="1:31" ht="51">
       <c r="A28" s="5">
-        <v>44446.5515856482</v>
+        <v>44446.551585648202</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="M28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>38</v>
@@ -5989,16 +5388,16 @@
         <v>39269</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R28" s="4">
         <v>605593</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U28" s="4">
         <v>27</v>
@@ -6007,64 +5406,64 @@
         <v>8</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" ht="132.75" spans="1:31">
+    <row r="29" spans="1:31" ht="127.5">
       <c r="A29" s="2">
-        <v>44436.0245949074</v>
+        <v>44436.024594907401</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" s="4">
         <v>4005773188</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="K29" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>38</v>
@@ -6076,16 +5475,16 @@
         <v>40675</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="U29" s="4">
         <v>459</v>
@@ -6094,69 +5493,69 @@
         <v>4</v>
       </c>
       <c r="W29" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB29" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y29" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" ht="93.15" spans="1:31">
+    <row r="30" spans="1:31" ht="89.25">
       <c r="A30" s="2">
-        <v>44442.6115393518</v>
+        <v>44442.611539351798</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E30" s="4">
         <v>4005294240</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="K30" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="N30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O30" s="4">
         <v>10</v>
@@ -6165,85 +5564,85 @@
         <v>40537</v>
       </c>
       <c r="Q30" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U30" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="V30" s="4">
         <v>5</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="14" t="s">
-        <v>245</v>
+        <v>836</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" ht="159.15" spans="1:31">
+    <row r="31" spans="1:31" ht="153">
       <c r="A31" s="2">
         <v>44436.5768171296</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="4">
         <v>4010199312</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G31" s="3">
         <v>79214321202</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O31" s="4">
         <v>11</v>
@@ -6252,16 +5651,16 @@
         <v>40094</v>
       </c>
       <c r="Q31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="T31" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="U31" s="4">
         <v>320</v>
@@ -6270,63 +5669,63 @@
         <v>6</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Y31" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" ht="119.55" spans="1:31">
+    <row r="32" spans="1:31" ht="114.75">
       <c r="A32" s="2">
-        <v>44435.8608333333</v>
+        <v>44435.860833333303</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="4">
         <v>4014046858</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>457</v>
-      </c>
       <c r="K32" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>37</v>
@@ -6341,16 +5740,16 @@
         <v>40050</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U32" s="4">
         <v>586</v>
@@ -6359,69 +5758,69 @@
         <v>6</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Y32" s="14" t="s">
-        <v>245</v>
+        <v>836</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" ht="145.95" spans="1:31">
+    <row r="33" spans="1:31" ht="140.25">
       <c r="A33" s="2">
-        <v>44436.5358101852</v>
+        <v>44436.535810185203</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E33" s="4">
         <v>4004062728</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="M33" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O33" s="4">
         <v>12</v>
@@ -6430,13 +5829,13 @@
         <v>39942</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>41</v>
@@ -6448,69 +5847,69 @@
         <v>6</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Y33" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" ht="119.55" spans="1:31">
+    <row r="34" spans="1:31" ht="114.75">
       <c r="A34" s="2">
-        <v>44443.9738078704</v>
+        <v>44443.973807870403</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E34" s="4">
         <v>4005827807</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G34" s="3">
         <v>79213290657</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="M34" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O34" s="4">
         <v>12</v>
@@ -6519,84 +5918,84 @@
         <v>39916</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="V34" s="4">
         <v>6</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Y34" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" ht="172.35" spans="1:31">
+    <row r="35" spans="1:31" ht="165.75">
       <c r="A35" s="2">
-        <v>44435.8031018519</v>
+        <v>44435.803101851903</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E35" s="4">
         <v>4010179431</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G35" s="4">
         <v>89219093761</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>38</v>
@@ -6608,51 +6007,51 @@
         <v>40130</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>41</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="V35" s="4">
         <v>6</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="X35" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y35" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB35" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="Y35" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA35" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB35" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" ht="79.95" spans="1:31">
+    <row r="36" spans="1:31" ht="76.5">
       <c r="A36" s="2">
-        <v>44435.800474537</v>
+        <v>44435.800474536998</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>29</v>
@@ -6664,25 +6063,25 @@
         <v>4005781800</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G36" s="4">
         <v>9213357520</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="3" t="s">
@@ -6698,46 +6097,46 @@
         <v>39</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="V36" s="4">
         <v>7</v>
       </c>
       <c r="W36" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y36" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA36" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y36" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" ht="79.95" spans="1:31">
+    <row r="37" spans="1:31" ht="76.5">
       <c r="A37" s="2">
-        <v>44435.8022916667</v>
+        <v>44435.802291666703</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>29</v>
@@ -6749,28 +6148,28 @@
         <v>4005781800</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G37" s="4">
         <v>9213357520</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>38</v>
@@ -6785,13 +6184,13 @@
         <v>39</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U37" s="4">
         <v>18</v>
@@ -6800,66 +6199,66 @@
         <v>5</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Y37" s="14" t="s">
-        <v>245</v>
+        <v>836</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AB37" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" ht="132.75" spans="1:31">
+    <row r="38" spans="1:31" ht="140.25">
       <c r="A38" s="2">
-        <v>44437.5750578704</v>
+        <v>44437.575057870403</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4">
         <v>4011489780</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G38" s="3">
         <v>79006387015</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="L38" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>38</v>
@@ -6871,16 +6270,16 @@
         <v>40164</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="U38" s="4">
         <v>278</v>
@@ -6889,36 +6288,36 @@
         <v>6</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="X38" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y38" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z38" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="Y38" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="AA38" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" ht="198.75" spans="1:31">
+    <row r="39" spans="1:31" ht="178.5">
       <c r="A39" s="5">
         <v>44446.7086458333</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>37</v>
@@ -6927,28 +6326,28 @@
         <v>4108107218</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="K39" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>38</v>
@@ -6960,84 +6359,84 @@
         <v>40038</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="R39" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="U39" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>542</v>
       </c>
       <c r="V39" s="4">
         <v>6</v>
       </c>
       <c r="W39" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y39" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA39" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="X39" s="3" t="s">
+      <c r="AB39" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="Y39" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z39" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="AA39" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="AB39" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" ht="79.95" spans="1:31">
+    <row r="40" spans="1:31" ht="89.25">
       <c r="A40" s="2">
-        <v>44436.4550231481</v>
+        <v>44436.455023148097</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E40" s="4">
         <v>4010086308</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="K40" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>556</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>38</v>
@@ -7049,16 +6448,16 @@
         <v>39807</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R40" s="13">
         <v>39879</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U40" s="4">
         <v>344</v>
@@ -7067,69 +6466,69 @@
         <v>6</v>
       </c>
       <c r="W40" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y40" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB40" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="Y40" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z40" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="AB40" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" ht="159.15" spans="1:31">
+    <row r="41" spans="1:31" ht="153">
       <c r="A41" s="2">
-        <v>44441.8893402778</v>
+        <v>44441.889340277798</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E41" s="4">
         <v>4017769113</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G41" s="4">
         <v>89219349949</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J41" s="4">
         <v>546407</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O41" s="4">
         <v>12</v>
@@ -7138,87 +6537,87 @@
         <v>39710</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="V41" s="4">
         <v>7</v>
       </c>
       <c r="W41" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA41" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="X41" s="3" t="s">
+      <c r="AB41" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="Y41" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="AB41" s="3" t="s">
-        <v>576</v>
       </c>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" ht="119.55" spans="1:31">
+    <row r="42" spans="1:31" ht="114.75">
       <c r="A42" s="2">
-        <v>44445.5300694444</v>
+        <v>44445.530069444401</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="4">
         <v>4099351412</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="M42" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O42" s="4">
         <v>11</v>
@@ -7227,80 +6626,80 @@
         <v>40250</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="V42" s="4">
         <v>5</v>
       </c>
       <c r="W42" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y42" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA42" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="Y42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>591</v>
-      </c>
       <c r="AB42" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" ht="27.15" spans="1:31">
+    <row r="43" spans="1:31" ht="25.5">
       <c r="A43" s="5">
-        <v>44446.512662037</v>
+        <v>44446.512662036999</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>598</v>
-      </c>
       <c r="M43" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>38</v>
@@ -7312,85 +6711,85 @@
         <v>40064</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="V43" s="4">
         <v>6</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="14" t="s">
-        <v>245</v>
+        <v>836</v>
       </c>
       <c r="Z43" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AA43" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AB43" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" ht="119.55" spans="1:31">
+    <row r="44" spans="1:31" ht="114.75">
       <c r="A44" s="2">
-        <v>44435.8929861111</v>
+        <v>44435.892986111103</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="4">
         <v>5700326605</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="L44" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="O44" s="4">
         <v>10</v>
@@ -7399,16 +6798,16 @@
         <v>40430</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U44" s="4">
         <v>206</v>
@@ -7417,67 +6816,67 @@
         <v>5</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="X44" s="3"/>
       <c r="Y44" s="14" t="s">
-        <v>245</v>
+        <v>836</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AB44" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" ht="119.55" spans="1:31">
+    <row r="45" spans="1:31" ht="114.75">
       <c r="A45" s="2">
-        <v>44435.8124768519</v>
+        <v>44435.812476851897</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="4">
         <v>4007032963</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="L45" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>621</v>
-      </c>
       <c r="N45" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O45" s="4">
         <v>10</v>
@@ -7486,51 +6885,51 @@
         <v>40690</v>
       </c>
       <c r="Q45" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U45" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="V45" s="4">
         <v>6</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="Y45" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AA45" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AB45" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" ht="145.95" spans="1:31">
+    <row r="46" spans="1:31" ht="140.25">
       <c r="A46" s="2">
-        <v>44438.671099537</v>
+        <v>44438.671099537001</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>36</v>
@@ -7542,25 +6941,25 @@
         <v>4018074347</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="K46" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>37</v>
@@ -7575,16 +6974,16 @@
         <v>39635</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="U46" s="4">
         <v>230</v>
@@ -7593,66 +6992,66 @@
         <v>7</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Y46" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AB46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" ht="211.95" spans="1:31">
+    <row r="47" spans="1:31" ht="204">
       <c r="A47" s="5">
-        <v>44445.9215856481</v>
+        <v>44445.921585648102</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E47" s="4">
         <v>3409941856</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>646</v>
-      </c>
       <c r="M47" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>38</v>
@@ -7664,16 +7063,16 @@
         <v>39425</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U47" s="4">
         <v>533</v>
@@ -7686,30 +7085,30 @@
       </c>
       <c r="X47" s="3"/>
       <c r="Y47" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AA47" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AB47" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" ht="145.95" spans="1:31">
+    <row r="48" spans="1:31" ht="140.25">
       <c r="A48" s="2">
-        <v>44437.765775463</v>
+        <v>44437.765775462998</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>30</v>
@@ -7718,28 +7117,28 @@
         <v>4000465400</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="K48" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>38</v>
@@ -7751,84 +7150,84 @@
         <v>39007</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="V48" s="4">
         <v>9</v>
       </c>
       <c r="W48" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y48" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB48" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="Y48" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" ht="79.95" spans="1:31">
+    <row r="49" spans="1:31" ht="76.5">
       <c r="A49" s="5">
-        <v>44445.8701273148</v>
+        <v>44445.870127314804</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E49" s="4">
         <v>1800352304</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G49" s="4">
         <v>9643248191</v>
       </c>
       <c r="H49" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>671</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>38</v>
@@ -7840,13 +7239,13 @@
         <v>40031</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>41</v>
@@ -7862,60 +7261,60 @@
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB49" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" ht="172.35" spans="1:31">
+    <row r="50" spans="1:31" ht="165.75">
       <c r="A50" s="2">
-        <v>44435.8487268519</v>
+        <v>44435.848726851902</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E50" s="4">
         <v>4016712862</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>683</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>38</v>
@@ -7927,16 +7326,16 @@
         <v>39072</v>
       </c>
       <c r="Q50" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="T50" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="T50" s="3" t="s">
-        <v>687</v>
       </c>
       <c r="U50" s="4">
         <v>454</v>
@@ -7945,69 +7344,69 @@
         <v>9</v>
       </c>
       <c r="W50" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y50" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z50" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA50" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="X50" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="Y50" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z50" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA50" s="3" t="s">
-        <v>691</v>
-      </c>
       <c r="AB50" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" ht="119.55" spans="1:31">
+    <row r="51" spans="1:31" ht="102">
       <c r="A51" s="2">
-        <v>44436.7461342593</v>
+        <v>44436.746134259301</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E51" s="4">
         <v>4020802054</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G51" s="4">
         <v>89217505003</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O51" s="4">
         <v>12</v>
@@ -8016,16 +7415,16 @@
         <v>40014</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="R51" s="4">
         <v>667</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U51" s="4">
         <v>85</v>
@@ -8034,69 +7433,69 @@
         <v>6</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="Y51" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AA51" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AB51" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" ht="145.95" spans="1:31">
+    <row r="52" spans="1:31" ht="140.25">
       <c r="A52" s="2">
-        <v>44437.6210532407</v>
+        <v>44437.621053240699</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E52" s="4">
         <v>4018284217</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>707</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O52" s="4">
         <v>12</v>
@@ -8105,16 +7504,16 @@
         <v>39868</v>
       </c>
       <c r="Q52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="U52" s="4">
         <v>45</v>
@@ -8123,67 +7522,67 @@
         <v>6</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="X52" s="3"/>
       <c r="Y52" s="14" t="s">
-        <v>79</v>
+        <v>835</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AA52" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AB52" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" ht="172.35" spans="1:31">
+    <row r="53" spans="1:31" ht="165.75">
       <c r="A53" s="2">
         <v>44440.8027083333</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E53" s="4">
         <v>2208221001</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="N53" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O53" s="4">
         <v>12</v>
@@ -8192,16 +7591,16 @@
         <v>39810</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U53" s="4">
         <v>555</v>
@@ -8210,67 +7609,67 @@
         <v>6</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AA53" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AB53" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" ht="145.95" spans="1:31">
+    <row r="54" spans="1:31" ht="140.25">
       <c r="A54" s="2">
         <v>44445.4597685185</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="K54" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>733</v>
-      </c>
       <c r="M54" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O54" s="4">
         <v>10</v>
@@ -8279,16 +7678,16 @@
         <v>40649</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="U54" s="4">
         <v>514</v>
@@ -8297,66 +7696,66 @@
         <v>4</v>
       </c>
       <c r="W54" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y54" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="AB54" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="Y54" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z54" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="AB54" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" ht="79.95" spans="1:31">
+    <row r="55" spans="1:31" ht="76.5">
       <c r="A55" s="2">
         <v>44436.4760185185</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E55" s="4">
         <v>4020696755</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G55" s="4">
         <v>9112296309</v>
       </c>
       <c r="H55" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="M55" s="12" t="s">
         <v>743</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="M55" s="12" t="s">
-        <v>746</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>38</v>
@@ -8368,16 +7767,16 @@
         <v>40416</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U55" s="4">
         <v>265</v>
@@ -8386,66 +7785,66 @@
         <v>5</v>
       </c>
       <c r="W55" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y55" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="AA55" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB55" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="X55" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="Y55" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z55" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="AA55" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="AB55" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" ht="79.95" spans="1:31">
+    <row r="56" spans="1:31" ht="76.5">
       <c r="A56" s="2">
-        <v>44436.4803819444</v>
+        <v>44436.480381944399</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E56" s="4">
         <v>4020696577</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>755</v>
-      </c>
       <c r="K56" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>38</v>
@@ -8457,16 +7856,16 @@
         <v>40416</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U56" s="4">
         <v>265</v>
@@ -8475,63 +7874,63 @@
         <v>5</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="Y56" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z56" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AB56" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
     </row>
-    <row r="57" ht="145.95" spans="1:31">
+    <row r="57" spans="1:31" ht="153">
       <c r="A57" s="2">
-        <v>44435.8397453704</v>
+        <v>44435.839745370402</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E57" s="4">
         <v>4007299982</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="K57" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>37</v>
@@ -8546,84 +7945,84 @@
         <v>39561</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="V57" s="4">
         <v>7</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="Y57" s="14" t="s">
-        <v>245</v>
+        <v>836</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AA57" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="AB57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" ht="93.15" spans="1:31">
+    <row r="58" spans="1:31" ht="89.25">
       <c r="A58" s="5">
-        <v>44445.8719328704</v>
+        <v>44445.871932870403</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E58" s="4">
         <v>4005285077</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="L58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>781</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>38</v>
@@ -8635,16 +8034,16 @@
         <v>39838</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U58" s="4">
         <v>533</v>
@@ -8653,69 +8052,69 @@
         <v>7</v>
       </c>
       <c r="W58" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y58" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB58" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="Y58" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>786</v>
       </c>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
     </row>
-    <row r="59" ht="132.75" spans="1:31">
+    <row r="59" spans="1:31" ht="127.5">
       <c r="A59" s="2">
-        <v>44438.7649768519</v>
+        <v>44438.764976851897</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E59" s="4">
         <v>4010130504</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="L59" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>794</v>
-      </c>
       <c r="N59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O59" s="4">
         <v>12</v>
@@ -8724,16 +8123,16 @@
         <v>39821</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U59" s="4">
         <v>631</v>
@@ -8742,69 +8141,69 @@
         <v>6</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Y59" s="14" t="s">
-        <v>245</v>
+        <v>836</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="AA59" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" ht="79.95" spans="1:31">
+    <row r="60" spans="1:31" ht="76.5">
       <c r="A60" s="5">
-        <v>44446.8495717593</v>
+        <v>44446.849571759303</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E60" s="4">
         <v>4018149231</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="K60" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M60" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>804</v>
-      </c>
       <c r="N60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O60" s="4">
         <v>13</v>
@@ -8813,16 +8212,16 @@
         <v>39550</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="U60" s="4">
         <v>271</v>
@@ -8831,63 +8230,63 @@
         <v>7</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="Y60" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AB60" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
     </row>
-    <row r="61" ht="238.35" spans="1:31">
+    <row r="61" spans="1:31" ht="242.25">
       <c r="A61" s="2">
-        <v>44435.8537268518</v>
+        <v>44435.853726851798</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E61" s="4">
         <v>4020719237</v>
       </c>
       <c r="F61" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>818</v>
-      </c>
       <c r="K61" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>37</v>
@@ -8902,84 +8301,84 @@
         <v>39529</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="V61" s="4">
         <v>7</v>
       </c>
       <c r="W61" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y61" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z61" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="AA61" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="X61" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="Y61" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z61" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="AA61" s="3" t="s">
-        <v>825</v>
-      </c>
       <c r="AB61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
     </row>
-    <row r="62" ht="145.95" spans="1:31">
+    <row r="62" spans="1:31" ht="141">
       <c r="A62" s="2">
-        <v>44436.5778703704</v>
+        <v>44436.577870370398</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" s="4">
         <v>4012568712</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G62" s="3">
         <v>79112145750</v>
       </c>
       <c r="H62" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>831</v>
-      </c>
       <c r="L62" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>38</v>
@@ -8991,40 +8390,40 @@
         <v>40129</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="V62" s="4">
         <v>5</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="Y62" s="14" t="s">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="Z62" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AA62" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB62" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
@@ -9063,7 +8462,7 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
     </row>
-    <row r="64" ht="15.15" spans="1:31">
+    <row r="64" spans="1:31">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9096,7 +8495,7 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
     </row>
-    <row r="65" ht="15.15" spans="1:31">
+    <row r="65" spans="1:31">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9129,7 +8528,7 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
     </row>
-    <row r="66" ht="15.15" spans="1:31">
+    <row r="66" spans="1:31">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -9162,7 +8561,7 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" ht="15.15" spans="1:31">
+    <row r="67" spans="1:31">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9195,7 +8594,7 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" ht="15.15" spans="1:31">
+    <row r="68" spans="1:31">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9228,7 +8627,7 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" ht="15.15" spans="1:31">
+    <row r="69" spans="1:31">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9261,7 +8660,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" ht="15.15" spans="1:31">
+    <row r="70" spans="1:31">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -9294,7 +8693,7 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
     </row>
-    <row r="71" ht="15.15" spans="1:31">
+    <row r="71" spans="1:31">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -9327,7 +8726,7 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
     </row>
-    <row r="72" ht="15.15" spans="1:31">
+    <row r="72" spans="1:31">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -9360,7 +8759,7 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
     </row>
-    <row r="73" ht="15.15" spans="1:31">
+    <row r="73" spans="1:31">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -9393,7 +8792,7 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" ht="15.15" spans="1:31">
+    <row r="74" spans="1:31">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -9426,7 +8825,7 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
     </row>
-    <row r="75" ht="15.15" spans="1:31">
+    <row r="75" spans="1:31">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -9459,7 +8858,7 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
     </row>
-    <row r="76" ht="15.15" spans="1:31">
+    <row r="76" spans="1:31">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -9492,7 +8891,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" ht="15.15" spans="1:31">
+    <row r="77" spans="1:31">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -9525,7 +8924,7 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
     </row>
-    <row r="78" ht="15.15" spans="1:31">
+    <row r="78" spans="1:31">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -9558,7 +8957,7 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
     </row>
-    <row r="79" ht="15.15" spans="1:31">
+    <row r="79" spans="1:31">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -9591,7 +8990,7 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
     </row>
-    <row r="80" ht="15.15" spans="1:31">
+    <row r="80" spans="1:31">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -9624,7 +9023,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" ht="15.15" spans="1:31">
+    <row r="81" spans="1:31">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -9657,7 +9056,7 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
     </row>
-    <row r="82" ht="15.15" spans="1:31">
+    <row r="82" spans="1:31">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -9690,7 +9089,7 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
     </row>
-    <row r="83" ht="15.15" spans="1:31">
+    <row r="83" spans="1:31">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -9723,7 +9122,7 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
     </row>
-    <row r="84" ht="15.15" spans="1:31">
+    <row r="84" spans="1:31">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -9756,7 +9155,7 @@
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
     </row>
-    <row r="85" ht="15.15" spans="1:31">
+    <row r="85" spans="1:31">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -9789,7 +9188,7 @@
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
     </row>
-    <row r="86" ht="15.15" spans="1:31">
+    <row r="86" spans="1:31">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -9822,7 +9221,7 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
     </row>
-    <row r="87" ht="15.15" spans="1:31">
+    <row r="87" spans="1:31">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -9855,7 +9254,7 @@
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
     </row>
-    <row r="88" ht="15.15" spans="1:31">
+    <row r="88" spans="1:31">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -9888,7 +9287,7 @@
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
     </row>
-    <row r="89" ht="15.15" spans="1:31">
+    <row r="89" spans="1:31">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9921,7 +9320,7 @@
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
     </row>
-    <row r="90" ht="15.15" spans="1:31">
+    <row r="90" spans="1:31">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -9954,7 +9353,7 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
     </row>
-    <row r="91" ht="15.15" spans="1:31">
+    <row r="91" spans="1:31">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -9987,7 +9386,7 @@
       <c r="AD91" s="3"/>
       <c r="AE91" s="3"/>
     </row>
-    <row r="92" ht="15.15" spans="1:31">
+    <row r="92" spans="1:31">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -10020,7 +9419,7 @@
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
     </row>
-    <row r="93" ht="15.15" spans="1:31">
+    <row r="93" spans="1:31">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -10053,7 +9452,7 @@
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
     </row>
-    <row r="94" ht="15.15" spans="1:31">
+    <row r="94" spans="1:31">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -10086,7 +9485,7 @@
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
     </row>
-    <row r="95" ht="15.15" spans="1:31">
+    <row r="95" spans="1:31">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -10119,7 +9518,7 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
     </row>
-    <row r="96" ht="15.15" spans="1:31">
+    <row r="96" spans="1:31">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -10152,7 +9551,7 @@
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
     </row>
-    <row r="97" ht="15.15" spans="1:31">
+    <row r="97" spans="1:31">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -10185,7 +9584,7 @@
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
     </row>
-    <row r="98" ht="15.15" spans="1:31">
+    <row r="98" spans="1:31">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -10218,7 +9617,7 @@
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
     </row>
-    <row r="99" ht="15.15" spans="1:31">
+    <row r="99" spans="1:31">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -10251,7 +9650,7 @@
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
     </row>
-    <row r="100" ht="15.15" spans="1:31">
+    <row r="100" spans="1:31">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -10284,7 +9683,7 @@
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
     </row>
-    <row r="101" ht="15.15" spans="1:31">
+    <row r="101" spans="1:31">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -10317,7 +9716,7 @@
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
     </row>
-    <row r="102" ht="15.15" spans="1:31">
+    <row r="102" spans="1:31">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -10350,7 +9749,7 @@
       <c r="AD102" s="3"/>
       <c r="AE102" s="3"/>
     </row>
-    <row r="103" ht="15.15" spans="1:31">
+    <row r="103" spans="1:31">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -10383,7 +9782,7 @@
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
     </row>
-    <row r="104" ht="15.15" spans="1:31">
+    <row r="104" spans="1:31">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -10416,7 +9815,7 @@
       <c r="AD104" s="3"/>
       <c r="AE104" s="3"/>
     </row>
-    <row r="105" ht="15.15" spans="1:31">
+    <row r="105" spans="1:31">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -10449,7 +9848,7 @@
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
     </row>
-    <row r="106" ht="15.15" spans="1:31">
+    <row r="106" spans="1:31">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -10482,7 +9881,7 @@
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
     </row>
-    <row r="107" ht="15.15" spans="1:31">
+    <row r="107" spans="1:31">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -10515,7 +9914,7 @@
       <c r="AD107" s="3"/>
       <c r="AE107" s="3"/>
     </row>
-    <row r="108" ht="15.15" spans="1:31">
+    <row r="108" spans="1:31">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -10548,7 +9947,7 @@
       <c r="AD108" s="3"/>
       <c r="AE108" s="3"/>
     </row>
-    <row r="109" ht="15.15" spans="1:31">
+    <row r="109" spans="1:31">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -10581,7 +9980,7 @@
       <c r="AD109" s="3"/>
       <c r="AE109" s="3"/>
     </row>
-    <row r="110" ht="15.15" spans="1:31">
+    <row r="110" spans="1:31">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -10614,7 +10013,7 @@
       <c r="AD110" s="3"/>
       <c r="AE110" s="3"/>
     </row>
-    <row r="111" ht="15.15" spans="1:31">
+    <row r="111" spans="1:31">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -10647,7 +10046,7 @@
       <c r="AD111" s="3"/>
       <c r="AE111" s="3"/>
     </row>
-    <row r="112" ht="15.15" spans="1:31">
+    <row r="112" spans="1:31">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -10680,7 +10079,7 @@
       <c r="AD112" s="3"/>
       <c r="AE112" s="3"/>
     </row>
-    <row r="113" ht="15.15" spans="1:31">
+    <row r="113" spans="1:31">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -10713,7 +10112,7 @@
       <c r="AD113" s="3"/>
       <c r="AE113" s="3"/>
     </row>
-    <row r="114" ht="15.15" spans="1:31">
+    <row r="114" spans="1:31">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -10746,7 +10145,7 @@
       <c r="AD114" s="3"/>
       <c r="AE114" s="3"/>
     </row>
-    <row r="115" ht="15.15" spans="1:31">
+    <row r="115" spans="1:31">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -10779,7 +10178,7 @@
       <c r="AD115" s="3"/>
       <c r="AE115" s="3"/>
     </row>
-    <row r="116" ht="15.15" spans="1:31">
+    <row r="116" spans="1:31">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -10812,7 +10211,7 @@
       <c r="AD116" s="3"/>
       <c r="AE116" s="3"/>
     </row>
-    <row r="117" ht="15.15" spans="1:31">
+    <row r="117" spans="1:31">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -10845,7 +10244,7 @@
       <c r="AD117" s="3"/>
       <c r="AE117" s="3"/>
     </row>
-    <row r="118" ht="15.15" spans="1:31">
+    <row r="118" spans="1:31">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -10878,7 +10277,7 @@
       <c r="AD118" s="3"/>
       <c r="AE118" s="3"/>
     </row>
-    <row r="119" ht="15.15" spans="1:31">
+    <row r="119" spans="1:31">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -10911,7 +10310,7 @@
       <c r="AD119" s="3"/>
       <c r="AE119" s="3"/>
     </row>
-    <row r="120" ht="15.15" spans="1:31">
+    <row r="120" spans="1:31">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -10944,7 +10343,7 @@
       <c r="AD120" s="3"/>
       <c r="AE120" s="3"/>
     </row>
-    <row r="121" ht="15.15" spans="1:31">
+    <row r="121" spans="1:31">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -10977,7 +10376,7 @@
       <c r="AD121" s="3"/>
       <c r="AE121" s="3"/>
     </row>
-    <row r="122" ht="15.15" spans="1:31">
+    <row r="122" spans="1:31">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -11010,7 +10409,7 @@
       <c r="AD122" s="3"/>
       <c r="AE122" s="3"/>
     </row>
-    <row r="123" ht="15.15" spans="1:31">
+    <row r="123" spans="1:31">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -11043,7 +10442,7 @@
       <c r="AD123" s="3"/>
       <c r="AE123" s="3"/>
     </row>
-    <row r="124" ht="15.15" spans="1:31">
+    <row r="124" spans="1:31">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -11076,7 +10475,7 @@
       <c r="AD124" s="3"/>
       <c r="AE124" s="3"/>
     </row>
-    <row r="125" ht="15.15" spans="1:31">
+    <row r="125" spans="1:31">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -11109,7 +10508,7 @@
       <c r="AD125" s="3"/>
       <c r="AE125" s="3"/>
     </row>
-    <row r="126" ht="15.15" spans="1:31">
+    <row r="126" spans="1:31">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -11142,7 +10541,7 @@
       <c r="AD126" s="3"/>
       <c r="AE126" s="3"/>
     </row>
-    <row r="127" ht="15.15" spans="1:31">
+    <row r="127" spans="1:31">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -11175,7 +10574,7 @@
       <c r="AD127" s="3"/>
       <c r="AE127" s="3"/>
     </row>
-    <row r="128" ht="15.15" spans="1:31">
+    <row r="128" spans="1:31">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -11208,7 +10607,7 @@
       <c r="AD128" s="3"/>
       <c r="AE128" s="3"/>
     </row>
-    <row r="129" ht="15.15" spans="1:31">
+    <row r="129" spans="1:31">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -11241,7 +10640,7 @@
       <c r="AD129" s="3"/>
       <c r="AE129" s="3"/>
     </row>
-    <row r="130" ht="15.15" spans="1:31">
+    <row r="130" spans="1:31">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -11274,7 +10673,7 @@
       <c r="AD130" s="3"/>
       <c r="AE130" s="3"/>
     </row>
-    <row r="131" ht="15.15" spans="1:31">
+    <row r="131" spans="1:31">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -11307,7 +10706,7 @@
       <c r="AD131" s="3"/>
       <c r="AE131" s="3"/>
     </row>
-    <row r="132" ht="15.15" spans="1:31">
+    <row r="132" spans="1:31">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -11340,7 +10739,7 @@
       <c r="AD132" s="3"/>
       <c r="AE132" s="3"/>
     </row>
-    <row r="133" ht="15.15" spans="1:31">
+    <row r="133" spans="1:31">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -11373,7 +10772,7 @@
       <c r="AD133" s="3"/>
       <c r="AE133" s="3"/>
     </row>
-    <row r="134" ht="15.15" spans="1:31">
+    <row r="134" spans="1:31">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -11406,7 +10805,7 @@
       <c r="AD134" s="3"/>
       <c r="AE134" s="3"/>
     </row>
-    <row r="135" ht="15.15" spans="1:31">
+    <row r="135" spans="1:31">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -11439,7 +10838,7 @@
       <c r="AD135" s="3"/>
       <c r="AE135" s="3"/>
     </row>
-    <row r="136" ht="15.15" spans="1:31">
+    <row r="136" spans="1:31">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -11472,7 +10871,7 @@
       <c r="AD136" s="3"/>
       <c r="AE136" s="3"/>
     </row>
-    <row r="137" ht="15.15" spans="1:31">
+    <row r="137" spans="1:31">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -11505,7 +10904,7 @@
       <c r="AD137" s="3"/>
       <c r="AE137" s="3"/>
     </row>
-    <row r="138" ht="15.15" spans="1:31">
+    <row r="138" spans="1:31">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -11538,7 +10937,7 @@
       <c r="AD138" s="3"/>
       <c r="AE138" s="3"/>
     </row>
-    <row r="139" ht="15.15" spans="1:31">
+    <row r="139" spans="1:31">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -11571,7 +10970,7 @@
       <c r="AD139" s="3"/>
       <c r="AE139" s="3"/>
     </row>
-    <row r="140" ht="15.15" spans="1:31">
+    <row r="140" spans="1:31">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -11604,7 +11003,7 @@
       <c r="AD140" s="3"/>
       <c r="AE140" s="3"/>
     </row>
-    <row r="141" ht="15.15" spans="1:31">
+    <row r="141" spans="1:31">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -11637,7 +11036,7 @@
       <c r="AD141" s="3"/>
       <c r="AE141" s="3"/>
     </row>
-    <row r="142" ht="15.15" spans="1:31">
+    <row r="142" spans="1:31">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -11670,7 +11069,7 @@
       <c r="AD142" s="3"/>
       <c r="AE142" s="3"/>
     </row>
-    <row r="143" ht="15.15" spans="1:31">
+    <row r="143" spans="1:31">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -11703,7 +11102,7 @@
       <c r="AD143" s="3"/>
       <c r="AE143" s="3"/>
     </row>
-    <row r="144" ht="15.15" spans="1:31">
+    <row r="144" spans="1:31">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -11736,7 +11135,7 @@
       <c r="AD144" s="3"/>
       <c r="AE144" s="3"/>
     </row>
-    <row r="145" ht="15.15" spans="1:31">
+    <row r="145" spans="1:31">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -11769,7 +11168,7 @@
       <c r="AD145" s="3"/>
       <c r="AE145" s="3"/>
     </row>
-    <row r="146" ht="15.15" spans="1:31">
+    <row r="146" spans="1:31">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -11802,7 +11201,7 @@
       <c r="AD146" s="3"/>
       <c r="AE146" s="3"/>
     </row>
-    <row r="147" ht="15.15" spans="1:31">
+    <row r="147" spans="1:31">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -11835,7 +11234,7 @@
       <c r="AD147" s="3"/>
       <c r="AE147" s="3"/>
     </row>
-    <row r="148" ht="15.15" spans="1:31">
+    <row r="148" spans="1:31">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -11868,7 +11267,7 @@
       <c r="AD148" s="3"/>
       <c r="AE148" s="3"/>
     </row>
-    <row r="149" ht="15.15" spans="1:31">
+    <row r="149" spans="1:31">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -11901,7 +11300,7 @@
       <c r="AD149" s="3"/>
       <c r="AE149" s="3"/>
     </row>
-    <row r="150" ht="15.15" spans="1:31">
+    <row r="150" spans="1:31">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -11934,7 +11333,7 @@
       <c r="AD150" s="3"/>
       <c r="AE150" s="3"/>
     </row>
-    <row r="151" ht="15.15" spans="1:31">
+    <row r="151" spans="1:31">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -11967,7 +11366,7 @@
       <c r="AD151" s="3"/>
       <c r="AE151" s="3"/>
     </row>
-    <row r="152" ht="15.15" spans="1:31">
+    <row r="152" spans="1:31">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -12000,7 +11399,7 @@
       <c r="AD152" s="3"/>
       <c r="AE152" s="3"/>
     </row>
-    <row r="153" ht="15.15" spans="1:31">
+    <row r="153" spans="1:31">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -12034,13 +11433,13 @@
       <c r="AE153" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB62"/>
   <sortState ref="A2:AE62">
     <sortCondition ref="K2:K62"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H62" r:id="rId1" display="fia2005@yandex.ru"/>
+    <hyperlink ref="H62" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>